--- a/database.xlsx
+++ b/database.xlsx
@@ -179,7 +179,7 @@
     <t xml:space="preserve">Лесной стрелок</t>
   </si>
   <si>
-    <t xml:space="preserve">Живое существо, Стрельба без штрафа, Штраф в ближнем бою, Сильное оглушение, Пробивающий выстрел</t>
+    <t xml:space="preserve">Живое существо, Стрельба без штрафа, Штраф в ближнем бою, Оглушающий выстрел, Пробивающий выстрел</t>
   </si>
   <si>
     <t xml:space="preserve">Боевой единорог</t>
@@ -270,8 +270,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,1122 +303,1122 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="5.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="90.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="90.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="G2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="L2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="G3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="M3" s="0" t="n">
+      <c r="L3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="G4" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="M4" s="0" t="n">
+      <c r="L4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="s">
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="s">
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="B6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="E6" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="G6" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0" t="s">
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E7" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="G7" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="0" t="s">
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="B8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="G8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="0" t="s">
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="G9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="0" t="s">
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="B10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="G10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="0" t="s">
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="0" t="s">
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="C12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="0" t="s">
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="0" t="s">
+      <c r="N13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="0" t="s">
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>850</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="0" t="s">
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>850</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0" t="s">
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
         <v>1300</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="0" t="s">
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
+      <c r="H18" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
         <v>1700</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="0" t="s">
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
+      <c r="H19" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
         <v>1700</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="0" t="s">
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="0" t="n">
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
         <v>2800</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="M20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="0" t="s">
+      <c r="M20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="0" t="n">
+      <c r="H21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="M21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="0" t="s">
+      <c r="M21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
+      <c r="H22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="M22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="0" t="s">
+      <c r="M22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1437,384 +1441,384 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="5.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="90.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="90.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="s">
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2840A897-F6D4-40C4-A579-CF43D34974B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB24701B-3B2F-45E4-8038-0C6DFA5336AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Метаданные" sheetId="1" r:id="rId1"/>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB24701B-3B2F-45E4-8038-0C6DFA5336AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E3AED-4817-42D1-BC01-EC6B593C25BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Метаданные" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="265">
   <si>
     <t>Название листа</t>
   </si>
@@ -814,6 +814,21 @@
   </si>
   <si>
     <t>Тестовые юниты</t>
+  </si>
+  <si>
+    <t>Яростный манекен</t>
+  </si>
+  <si>
+    <t>Стойкий яростный манекен</t>
+  </si>
+  <si>
+    <t>Живое существо, Гнев манекена</t>
+  </si>
+  <si>
+    <t>Ослабляющий удар, Нежить</t>
+  </si>
+  <si>
+    <t>Манекен зомби</t>
   </si>
 </sst>
 </file>
@@ -1269,15 +1284,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
@@ -1404,6 +1419,174 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>263</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1418,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E3AED-4817-42D1-BC01-EC6B593C25BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695263C4-036B-4823-BDA7-C5BDD8704E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="269">
   <si>
     <t>Название листа</t>
   </si>
@@ -829,6 +829,18 @@
   </si>
   <si>
     <t>Манекен зомби</t>
+  </si>
+  <si>
+    <t>Живое существо, Налогоплательщик, Оглушение щитом</t>
+  </si>
+  <si>
+    <t>Оглушающий манекен</t>
+  </si>
+  <si>
+    <t>Оглушение</t>
+  </si>
+  <si>
+    <t>Стремительный манекен</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,13 +1545,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1575,15 +1587,127 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>263</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
     </row>
@@ -1602,7 +1726,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="P4">
         <v>0</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695263C4-036B-4823-BDA7-C5BDD8704E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9989C-48AD-4E80-9F53-B6014933831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4257,7 +4257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O22"/>
     </sheetView>
   </sheetViews>
@@ -10584,7 +10584,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9989C-48AD-4E80-9F53-B6014933831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B22C016-545E-4B92-A825-E443D178E60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Метаданные" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="267">
   <si>
     <t>Название листа</t>
   </si>
@@ -123,15 +123,9 @@
     <t>Крестьянин</t>
   </si>
   <si>
-    <t>Живое существо, Налогоплательщик</t>
-  </si>
-  <si>
     <t>Ополченец</t>
   </si>
   <si>
-    <t>Живое существо, Налогоплательщик, Оглушение</t>
-  </si>
-  <si>
     <t>Лендлорд</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Мечник</t>
   </si>
   <si>
-    <t>Живое существо, Щит, Оглушение</t>
-  </si>
-  <si>
     <t>Латник</t>
   </si>
   <si>
@@ -831,9 +822,6 @@
     <t>Манекен зомби</t>
   </si>
   <si>
-    <t>Живое существо, Налогоплательщик, Оглушение щитом</t>
-  </si>
-  <si>
     <t>Оглушающий манекен</t>
   </si>
   <si>
@@ -841,6 +829,12 @@
   </si>
   <si>
     <t>Стремительный манекен</t>
+  </si>
+  <si>
+    <t>Живое существо, Оглушение</t>
+  </si>
+  <si>
+    <t>Живое существо, Щит, Оглушение щитом</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1272,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -1377,7 +1371,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1419,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1433,7 +1427,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1475,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1489,7 +1483,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1531,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1545,7 +1539,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1587,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1601,7 +1595,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1643,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1657,7 +1651,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1699,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1725,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1860,7 +1854,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1902,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1916,7 +1910,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1972,7 +1966,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2014,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2028,7 +2022,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2070,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2084,7 +2078,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2126,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2140,7 +2134,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -2182,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2196,7 +2190,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -2238,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2252,7 +2246,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -2294,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2308,7 +2302,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -2350,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -2364,7 +2358,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -2406,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -2420,7 +2414,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -2462,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -2476,7 +2470,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -2518,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2532,7 +2526,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>16</v>
@@ -2574,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2588,7 +2582,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -2630,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2644,7 +2638,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>23</v>
@@ -2686,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -2700,7 +2694,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -2742,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -2756,7 +2750,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -2798,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -2812,7 +2806,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>27</v>
@@ -2854,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -2868,7 +2862,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>31</v>
@@ -2910,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -2924,7 +2918,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -2966,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -3069,7 +3063,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3111,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3125,7 +3119,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3167,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -3181,7 +3175,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3223,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3237,7 +3231,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -3279,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -3293,7 +3287,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3335,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3349,7 +3343,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3391,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3405,7 +3399,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -3447,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3461,7 +3455,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -3503,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3517,7 +3511,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -3559,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3573,7 +3567,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -3615,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -3629,7 +3623,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -3671,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -3685,7 +3679,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3727,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -3741,7 +3735,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -3783,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3797,7 +3791,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -3839,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3853,7 +3847,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -3895,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3909,7 +3903,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -3951,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -3965,7 +3959,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18">
         <v>19</v>
@@ -4007,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -4021,7 +4015,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -4063,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -4077,7 +4071,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20">
         <v>27</v>
@@ -4119,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -4133,7 +4127,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B21">
         <v>31</v>
@@ -4175,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -4189,7 +4183,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -4231,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -4335,7 +4329,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4377,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -4391,7 +4385,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4433,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -4447,7 +4441,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -4489,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -4503,7 +4497,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4545,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -4559,7 +4553,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -4601,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -4615,7 +4609,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -4657,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -4671,7 +4665,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -4713,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4727,7 +4721,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -4769,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4783,7 +4777,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -4825,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4839,7 +4833,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4881,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -4895,7 +4889,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -4937,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -4951,7 +4945,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4993,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -5007,7 +5001,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5049,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -5063,7 +5057,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5105,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -5119,7 +5113,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -5161,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -5175,7 +5169,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>25</v>
@@ -5217,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -5231,7 +5225,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>25</v>
@@ -5273,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -5287,7 +5281,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -5329,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -5343,7 +5337,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B20">
         <v>27</v>
@@ -5385,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -5399,7 +5393,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -5441,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -5455,7 +5449,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -5497,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -5600,7 +5594,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5642,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -5656,7 +5650,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -5698,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -5712,7 +5706,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5754,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -5768,7 +5762,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5810,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -5824,7 +5818,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -5866,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5880,7 +5874,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -5922,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -5936,7 +5930,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -5978,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -5992,7 +5986,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -6034,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -6048,7 +6042,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -6090,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -6104,7 +6098,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -6146,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -6160,7 +6154,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -6202,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -6216,7 +6210,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -6258,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -6272,7 +6266,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -6314,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6328,7 +6322,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -6370,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6384,7 +6378,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -6426,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -6440,7 +6434,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -6482,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -6496,7 +6490,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -6538,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -6552,7 +6546,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -6594,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -6608,7 +6602,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B20">
         <v>27</v>
@@ -6650,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -6664,7 +6658,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21">
         <v>32</v>
@@ -6706,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -6720,7 +6714,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B22">
         <v>32</v>
@@ -6762,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -6865,7 +6859,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6907,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -6921,7 +6915,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6963,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -6977,7 +6971,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -7019,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -7033,7 +7027,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7075,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -7089,7 +7083,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7131,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -7145,7 +7139,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -7187,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -7201,7 +7195,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -7243,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -7257,7 +7251,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -7299,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -7313,7 +7307,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -7355,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -7369,7 +7363,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -7411,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -7425,7 +7419,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -7467,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -7481,7 +7475,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -7523,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -7537,7 +7531,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -7579,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -7593,7 +7587,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -7635,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -7649,7 +7643,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16">
         <v>21</v>
@@ -7691,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -7705,7 +7699,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17">
         <v>24</v>
@@ -7747,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -7761,7 +7755,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B18">
         <v>26</v>
@@ -7803,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -7817,7 +7811,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -7859,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -7873,7 +7867,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B20">
         <v>27</v>
@@ -7915,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -7929,7 +7923,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -7971,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -7985,7 +7979,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B22">
         <v>31</v>
@@ -8027,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -8130,7 +8124,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -8172,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -8186,7 +8180,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -8228,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -8242,7 +8236,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -8284,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -8298,7 +8292,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8340,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -8354,7 +8348,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8396,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -8410,7 +8404,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -8452,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -8466,7 +8460,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -8508,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -8522,7 +8516,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -8564,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -8578,7 +8572,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8620,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -8634,7 +8628,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -8676,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -8690,7 +8684,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -8732,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -8746,7 +8740,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8788,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -8802,7 +8796,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -8844,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -8858,7 +8852,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -8900,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -8914,7 +8908,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8956,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -8970,7 +8964,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -9012,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -9026,7 +9020,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -9068,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -9082,7 +9076,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -9124,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -9138,7 +9132,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B20">
         <v>25</v>
@@ -9180,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -9194,7 +9188,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -9236,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -9250,7 +9244,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -9292,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -9395,7 +9389,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9437,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -9451,7 +9445,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9493,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -9507,7 +9501,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -9549,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -9563,7 +9557,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -9605,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -9619,7 +9613,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -9661,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -9675,7 +9669,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -9717,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -9731,7 +9725,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -9773,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -9787,7 +9781,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -9829,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -9843,7 +9837,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -9885,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -9899,7 +9893,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -9941,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -9955,7 +9949,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -9997,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -10011,7 +10005,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -10053,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -10067,7 +10061,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -10109,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -10123,7 +10117,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -10165,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -10179,7 +10173,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -10221,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -10235,7 +10229,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -10277,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -10291,7 +10285,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -10333,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -10347,7 +10341,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -10389,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -10403,7 +10397,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B20">
         <v>25</v>
@@ -10445,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -10459,7 +10453,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -10501,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -10515,7 +10509,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -10557,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -10660,7 +10654,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10702,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -10716,7 +10710,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10758,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -10772,7 +10766,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -10814,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -10828,7 +10822,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -10870,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -10884,7 +10878,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -10926,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -10940,7 +10934,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -10982,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -10996,7 +10990,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -11038,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -11052,7 +11046,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -11094,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -11108,7 +11102,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -11150,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -11164,7 +11158,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -11206,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -11220,7 +11214,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -11262,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -11276,7 +11270,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -11318,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -11332,7 +11326,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -11374,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -11388,7 +11382,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -11430,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -11444,7 +11438,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -11486,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -11500,7 +11494,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -11542,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -11556,7 +11550,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -11598,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -11612,7 +11606,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -11654,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -11668,7 +11662,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B20">
         <v>29</v>
@@ -11710,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -11724,7 +11718,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -11766,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -11780,7 +11774,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B22">
         <v>28</v>
@@ -11822,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P22">
         <v>1</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B22C016-545E-4B92-A825-E443D178E60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80EE71-E8FA-41FE-A28E-5988B14AC906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="268">
   <si>
     <t>Название листа</t>
   </si>
@@ -835,6 +835,9 @@
   </si>
   <si>
     <t>Живое существо, Щит, Оглушение щитом</t>
+  </si>
+  <si>
+    <t>Живое существо, Штурм</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1723,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P4">
         <v>0</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80EE71-E8FA-41FE-A28E-5988B14AC906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1285B496-F684-45E4-B1B3-5AC2F8C32F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Метаданные" sheetId="1" r:id="rId1"/>
@@ -825,9 +825,6 @@
     <t>Оглушающий манекен</t>
   </si>
   <si>
-    <t>Оглушение</t>
-  </si>
-  <si>
     <t>Стремительный манекен</t>
   </si>
   <si>
@@ -838,6 +835,9 @@
   </si>
   <si>
     <t>Живое существо, Штурм</t>
+  </si>
+  <si>
+    <t>Оглушение щитом</t>
   </si>
 </sst>
 </file>
@@ -1295,13 +1295,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1722,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P9">
         <v>0</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1285B496-F684-45E4-B1B3-5AC2F8C32F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22011D8B-C142-4B00-957B-0E0313615FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22011D8B-C142-4B00-957B-0E0313615FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D9AE67-974C-4555-9F80-6A7892C5C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1392,7 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>5</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D9AE67-974C-4555-9F80-6A7892C5C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFF9B76-E0B1-4046-9800-FA32EB3F05DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFF9B76-E0B1-4046-9800-FA32EB3F05DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA222704-703A-4204-833A-197EFE701928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="269">
   <si>
     <t>Название листа</t>
   </si>
@@ -838,6 +838,9 @@
   </si>
   <si>
     <t>Оглушение щитом</t>
+  </si>
+  <si>
+    <t>Живое существо, Колун</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1299,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -8051,7 +8054,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA222704-703A-4204-833A-197EFE701928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7853FE-D894-4B60-8986-B84235DECF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,7 +840,7 @@
     <t>Оглушение щитом</t>
   </si>
   <si>
-    <t>Живое существо, Колун</t>
+    <t>Живое существо, Колун, Вампиризм</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7853FE-D894-4B60-8986-B84235DECF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB3F1AF-ADA4-4317-91EC-D7C0B0AB7035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB3F1AF-ADA4-4317-91EC-D7C0B0AB7035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FACCE82-0D19-4463-96C9-6B224C7FA962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="270">
   <si>
     <t>Название листа</t>
   </si>
@@ -810,9 +810,6 @@
     <t>Яростный манекен</t>
   </si>
   <si>
-    <t>Стойкий яростный манекен</t>
-  </si>
-  <si>
     <t>Живое существо, Гнев манекена</t>
   </si>
   <si>
@@ -841,6 +838,12 @@
   </si>
   <si>
     <t>Живое существо, Колун, Вампиризм</t>
+  </si>
+  <si>
+    <t>Живое существо,Боевое безумие, Бесконечный отпор</t>
+  </si>
+  <si>
+    <t>Гневный манекен</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1302,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1442,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -1475,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1498,16 +1501,16 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1531,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1545,7 +1548,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1587,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1601,7 +1604,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1643,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1726,7 +1729,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1958,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2182,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2238,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P9">
         <v>0</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FACCE82-0D19-4463-96C9-6B224C7FA962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9955B7-8055-494B-B56F-A57446EEE043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Метаданные" sheetId="1" r:id="rId1"/>
@@ -1301,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9955B7-8055-494B-B56F-A57446EEE043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABD854-9CC7-4EC8-8FE8-BF66B7E6C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Метаданные" sheetId="1" r:id="rId1"/>
@@ -504,18 +504,12 @@
     <t>Вампир</t>
   </si>
   <si>
-    <t>Нежить, Враг не отвечает, Вампир</t>
-  </si>
-  <si>
     <t>Высший вампир</t>
   </si>
   <si>
     <t>Князь вампиров</t>
   </si>
   <si>
-    <t>Нежить, Вампир, Ослепляющий удар</t>
-  </si>
-  <si>
     <t>Лич</t>
   </si>
   <si>
@@ -844,6 +838,12 @@
   </si>
   <si>
     <t>Гневный манекен</t>
+  </si>
+  <si>
+    <t>Нежить, Враг не отвечает, Вампиризм</t>
+  </si>
+  <si>
+    <t>Нежить, Вампиризм, Ослепляющий удар</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2996,7 +2996,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O22"/>
+      <selection activeCell="O13" sqref="O2:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4261,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O22"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5527,7 +5527,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O2:O22"/>
+      <selection activeCell="O19" sqref="O18:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6792,7 +6792,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16">
         <v>21</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B17">
         <v>24</v>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B18">
         <v>26</v>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B20">
         <v>27</v>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B22">
         <v>31</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -8057,7 +8057,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B20">
         <v>25</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -9322,7 +9322,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -9566,7 +9566,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -9622,7 +9622,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -9734,7 +9734,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -9846,7 +9846,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -9902,7 +9902,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -9958,7 +9958,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -10014,7 +10014,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -10056,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -10070,7 +10070,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -10126,7 +10126,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -10182,7 +10182,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -10238,7 +10238,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -10350,7 +10350,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20">
         <v>25</v>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -10518,7 +10518,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10705,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -10831,7 +10831,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -10887,7 +10887,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -10943,7 +10943,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -11055,7 +11055,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -11167,7 +11167,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -11223,7 +11223,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -11335,7 +11335,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -11391,7 +11391,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -11559,7 +11559,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -11615,7 +11615,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -11671,7 +11671,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20">
         <v>29</v>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -11783,7 +11783,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B22">
         <v>28</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABD854-9CC7-4EC8-8FE8-BF66B7E6C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A50038E-66C6-4856-AD52-98F08B4D40D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Метаданные" sheetId="1" r:id="rId1"/>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O2:O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\Heroes_battle_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A50038E-66C6-4856-AD52-98F08B4D40D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF54F430-8A83-4132-A19E-6F655A6A83C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Метаданные" sheetId="1" r:id="rId1"/>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4261,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
